--- a/data/long_dif/IMC_R-Edad-long_dif.xlsx
+++ b/data/long_dif/IMC_R-Edad-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 17,64</t>
+          <t>5,14; 18,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 9,37</t>
+          <t>1,19; 11,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 14,11</t>
+          <t>2,51; 21,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 12,27</t>
+          <t>3,0; 12,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,35; 13,56</t>
+          <t>3,04; 11,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 8,79</t>
+          <t>3,17; 17,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5,38; 13,26</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 9,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4,75; 16,51</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>83,21%</t>
+          <t>83,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>84,64%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>83,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,91%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>88,91%</t>
+          <t>85,15%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>83,54%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>89,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>80,13%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,47; 90,78</t>
+          <t>73,51; 89,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,32; 93,27</t>
+          <t>78,49; 93,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,39; 91,01</t>
+          <t>59,44; 86,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,36; 95,04</t>
+          <t>73,25; 90,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,06; 88,72</t>
+          <t>84,9; 95,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,32; 92,68</t>
+          <t>76,16; 92,48</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>77,03; 88,79</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84,23; 93,03</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71,78; 86,78</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>9,47%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,72%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 13,93</t>
+          <t>2,37; 14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 17,82</t>
+          <t>3,63; 15,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 15,13</t>
+          <t>7,23; 31,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 6,93</t>
+          <t>4,47; 20,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 12,25</t>
+          <t>0,8; 7,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 11,08</t>
+          <t>1,8; 11,32</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 13,39</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,92; 9,93</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 17,62</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 14,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 14,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,32; 11,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 9,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 11,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>85,95%</t>
+          <t>9,31%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,95; 89,02</t>
+          <t>2,97; 12,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,93; 91,56</t>
+          <t>3,44; 13,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,79; 93,12</t>
+          <t>1,85; 10,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80,59; 90,5</t>
+          <t>2,37; 11,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,77; 89,31</t>
+          <t>3,03; 11,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,84; 89,56</t>
+          <t>4,71; 15,85</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 9,99</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 10,45</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,84; 10,75</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>86,47%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>88,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>75,32%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>85,61%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>86,12%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>84,31%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,24; 17,44</t>
+          <t>74,84; 89,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,35; 12,35</t>
+          <t>79,04; 91,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,88; 10,94</t>
+          <t>84,02; 96,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,17</t>
+          <t>80,73; 92,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,29; 13,26</t>
+          <t>79,82; 90,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,03; 11,15</t>
+          <t>66,02; 83,54</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>80,12; 89,87</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>81,87; 90,12</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>78,22; 89,44</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,74; 22,21</t>
+          <t>5,37; 17,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,14; 11,35</t>
+          <t>3,17; 11,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,55; 12,15</t>
+          <t>0,86; 9,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 8,54</t>
+          <t>3,14; 12,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,76; 15,67</t>
+          <t>5,15; 13,74</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 8,71</t>
+          <t>8,64; 24,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 12,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,63; 10,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 13,82</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>81,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>84,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>85,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>83,04%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>71,23; 87,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>72,85; 87,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,14; 92,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>79,2; 88,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>79,7; 89,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>78,15; 86,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>10,18%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,96</t>
+          <t>6,06; 21,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,79; 21,42</t>
+          <t>4,21; 11,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,49</t>
+          <t>6,38; 17,81</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,14; 14,85</t>
+          <t>4,34; 11,8</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,75</t>
+          <t>2,6; 8,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,84; 15,71</t>
+          <t>5,92; 13,94</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 14,26</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4,26; 8,99</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>7,24; 13,76</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>84,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>83,08%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>85,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>82,86%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>79,75%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,85</t>
+          <t>72,51; 88,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,34; 19,57</t>
+          <t>73,26; 87,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,0</t>
+          <t>66,97; 83,13</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,56; 11,44</t>
+          <t>83,38; 92,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,02; 10,16</t>
+          <t>79,0; 88,09</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5,93; 13,39</t>
+          <t>77,44; 87,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>80,41; 89,48</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>78,08; 86,33</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>75,44; 83,87</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>10,92%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>81,49%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>84,83%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>84,32%</t>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>5,08%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>71,5; 87,07</t>
+          <t>3,06; 11,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>75,04; 89,09</t>
+          <t>6,64; 19,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>75,93; 86,28</t>
+          <t>8,27; 22,15</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>80,54; 88,89</t>
+          <t>1,85; 7,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>76,05; 85,26</t>
+          <t>7,7; 15,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>79,72; 87,51</t>
+          <t>4,57; 11,65</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 7,93</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 15,97</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 14,3</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,74 +1859,104 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,72; 22,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>4,97; 10,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>8,08; 16,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>12,88%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>7,39%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -1567,32 +1969,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>6,85; 17,68</t>
+          <t>3,02; 10,04</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,81; 15,38</t>
+          <t>5,5; 20,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,32; 17,83</t>
+          <t>8,25; 18,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,98</t>
+          <t>5,81; 13,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,66; 15,3</t>
+          <t>4,63; 10,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,73</t>
+          <t>8,77; 17,88</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>5,23; 10,53</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 14,45</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 16,8</t>
         </is>
       </c>
     </row>
@@ -1600,37 +2017,52 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>82,02%</t>
+          <t>83,66%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>80,35%</t>
+          <t>80,72%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>85,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>80,76%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>81,75%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>84,34%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>80,74%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +2075,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>74,62; 87,71</t>
+          <t>70,09; 87,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>76,9; 87,0</t>
+          <t>74,43; 88,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>71,58; 87,01</t>
+          <t>74,03; 86,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>80,06; 89,76</t>
+          <t>75,69; 86,5</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>75,86; 85,81</t>
+          <t>80,26; 88,73</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>79,81; 87,1</t>
+          <t>74,79; 85,69</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>75,91; 85,65</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>79,2; 87,84</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>75,78; 84,33</t>
         </is>
       </c>
     </row>
@@ -1676,37 +2123,52 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -1719,74 +2181,100 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,48</t>
+          <t>7,61; 24,91</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>4,74; 11,4</t>
+          <t>3,7; 11,03</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>4,64; 15,47</t>
+          <t>3,41; 11,4</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>4,81; 11,89</t>
+          <t>5,64; 13,41</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,04; 11,44</t>
+          <t>5,01; 11,46</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,43; 10,95</t>
+          <t>3,58; 10,1</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 16,61</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 9,93</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 9,3</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1799,70 +2287,104 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>8,94; 25,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>10,43; 22,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>4,85; 15,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>6,21; 17,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>7,96; 18,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>75,05%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>79,92%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>77,4%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>76,89%</t>
+          <t>17,52%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>8,52%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
         </is>
       </c>
     </row>
@@ -1875,32 +2397,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>65,47; 83,87</t>
+          <t>6,95; 16,67</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>66,99; 81,94</t>
+          <t>6,53; 15,48</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>70,82; 87,18</t>
+          <t>5,61; 16,46</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>71,15; 85,49</t>
+          <t>6,11; 17,18</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>70,62; 83,29</t>
+          <t>3,42; 10,6</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>71,75; 81,94</t>
+          <t>10,72; 24,75</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>7,46; 14,63</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>6,2; 11,63</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>9,94; 18,91</t>
         </is>
       </c>
     </row>
@@ -1908,37 +2445,52 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>82,14%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>81,81%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>85,58%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>72,37%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>81,42%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>83,68%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>76,99%</t>
         </is>
       </c>
     </row>
@@ -1951,74 +2503,100 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>4,75; 15,38</t>
+          <t>75,08; 87,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>5,47; 17,03</t>
+          <t>76,19; 86,83</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>5,41; 18,92</t>
+          <t>74,44; 87,82</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>5,4; 16,57</t>
+          <t>73,26; 87,59</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>6,29; 14,92</t>
+          <t>80,02; 90,02</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>6,8; 14,37</t>
+          <t>63,67; 80,19</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>75,91; 85,86</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>79,96; 87,09</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>70,82; 81,99</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>7,78%</t>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>7,7%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -2031,32 +2609,47 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>8,03; 13,04</t>
+          <t>3,93; 12,69</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,18</t>
+          <t>4,82; 12,08</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,24</t>
+          <t>4,47; 13,29</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>5,55; 8,66</t>
+          <t>4,36; 15,16</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>7,82; 10,9</t>
+          <t>4,62; 12,66</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,13</t>
+          <t>5,62; 16,29</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>4,8; 11,44</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 10,65</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>5,94; 13,38</t>
         </is>
       </c>
     </row>
@@ -2064,37 +2657,52 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>84,07%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>84,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>82,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>83,87%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2107,70 +2715,104 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>77,43; 84,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>79,65; 85,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>81,42; 86,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>82,73; 86,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>80,55; 84,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>82,13; 85,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>12,82%</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>15,92%</t>
         </is>
       </c>
     </row>
@@ -2183,48 +2825,816 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>6,75; 11,43</t>
+          <t>9,19; 25,3</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,11</t>
+          <t>9,75; 22,52</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>6,05; 9,86</t>
+          <t>11,77; 31,44</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>6,52; 9,76</t>
+          <t>4,81; 16,45</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>6,84; 9,74</t>
+          <t>6,05; 17,17</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>7,09; 9,81</t>
+          <t>6,05; 20,36</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>8,13; 17,84</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 17,38</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 23,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>74,78%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>74,78%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>71,57%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>80,29%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>78,65%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>78,6%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>77,5%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>76,86%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>75,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>64,69; 82,38</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>67,02; 81,93</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>59,23; 82,79</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>71,27; 87,16</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>70,43; 85,32</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>67,98; 87,44</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>70,95; 82,6</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>71,72; 81,54</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>66,35; 82,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>10,12%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>10,5%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>10,17%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>10,32%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>8,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 16,45</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 16,97</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 20,96</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 17,81</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 17,75</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 19,88</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>6,64; 14,71</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>7,3; 14,96</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 16,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>11,21%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>8,21%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>9,07%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>11,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 12,62</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>7,04; 11,36</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>8,45; 14,21</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 10,11</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 8,35</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>9,35; 14,06</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>7,72; 10,77</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 9,3</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>9,76; 13,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>81,3%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>82,79%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>79,7%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>84,07%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>84,92%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>79,57%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>82,66%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>83,85%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>79,63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>77,67; 84,0</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>79,98; 85,13</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>75,5; 83,44</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>81,51; 86,52</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>82,82; 87,03</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>76,62; 82,43</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>80,51; 84,61</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>81,84; 85,39</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>77,23; 81,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>8,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>6,91; 11,7</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>6,51; 10,62</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 12,18</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 10,19</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 10,01</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 11,19</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 9,8</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 9,62</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 10,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
